--- a/Bank_list.xlsx
+++ b/Bank_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorobrepalski/Documents/Studia/Golem/Super_vison_hack/supervision_hack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390853B6-18E5-3342-B159-46031C7387DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFEEEBC-1CB8-8646-8093-E6E8D91AA05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,10 +86,6 @@
 </t>
   </si>
   <si>
-    <t>https://www.citibank.pl/dokumenty/
-[zakładki: klienci indywidualni &gt; konta &gt; tabela oprocentowania | klienci firmowi &gt; konta &gt; tabela oprocentowania ]</t>
-  </si>
-  <si>
     <t>https://www.santander.pl/przydatne-informacje/oprocentowanie#informacje</t>
   </si>
   <si>
@@ -99,49 +95,15 @@
     <t>mBank S.A.</t>
   </si>
   <si>
-    <t>https://www.bankmillennium.pl/klienci-indywidualni/wsparcie/cenniki-i-regulaminy
-[uwaga - w tym przypadku nie tabela oprocentowania, ale "cennik usług - stopy procentowe"]</t>
-  </si>
-  <si>
     <t>https://www.bankmillennium.pl/biznes/produkty/inwestowanie-kapitalu/lokata-biznes#dokumenty-do-pobrania</t>
   </si>
   <si>
-    <t>https://www.pekao.com.pl/o-banku/stopka/cennik-i-regulamin.html#
-[osobne regulaminy dla poszczególnych segmentów]</t>
-  </si>
-  <si>
     <t>https://www.pocztowy.pl/indywidualni/oprocentowanie</t>
   </si>
   <si>
-    <t>https://www.bosbank.pl/wazne-informacje/tabele-oplaty
-[osobne regulaminy dla poszczególnych segmentów w zakładce "oprocentowanie"]</t>
-  </si>
-  <si>
-    <t>https://plusbank.pl/oferta-dla-ciebie/konto-osobiste/konto-plus
-[zakładka tabela oprocentowania]</t>
-  </si>
-  <si>
-    <t>https://plusbank.pl/oferta-dla-firmy/rachunki/rachunek-biznes
-[zakładka tabela oprocentowania]</t>
-  </si>
-  <si>
-    <t>https://nestbank.pl/centrum-informacji/regulaminy-i-cenniki-oszczednosci-osobiste/</t>
-  </si>
-  <si>
-    <t>https://nestbank.pl/centrum-informacji/regulaminy-i-cenniki-oszczednosci-firmowe/</t>
-  </si>
-  <si>
     <t>https://country.db.com/poland/klienci-korporacyjni/dokumenty/?language_id=1</t>
   </si>
   <si>
-    <t>https://www.bnpparibas.pl/repozytorium/oplaty-i-oprocentowanie/produkty-banku-bnp-paribas-sa
-[osobne tabele oprocentowania dla poszczególnych segmentów]</t>
-  </si>
-  <si>
-    <t>https://www.toyotabank.pl/obsluga-klienta/dokumenty
-[osobne tabele oprocentowania dla poszczególnych segmentów]</t>
-  </si>
-  <si>
     <t>Alior Bank SA</t>
   </si>
   <si>
@@ -152,10 +114,6 @@
   </si>
   <si>
     <t>https://online.banknowy.pl/portal_online/dokumenty</t>
-  </si>
-  <si>
-    <t>https://www.velobank.pl/klienci-indywidualni/centrum-dokumentow
-[osobne tabele oprocentowania dla Kont osobistych i oszczędnościowych oraz dla Lokat terminowych]</t>
   </si>
   <si>
     <t>https://www.velobank.pl/firmy/centrum-dokumentow</t>
@@ -224,6 +182,39 @@
   </si>
   <si>
     <t>Corporation</t>
+  </si>
+  <si>
+    <t>https://www.citibank.pl/dokumenty/</t>
+  </si>
+  <si>
+    <t>https://www.bankmillennium.pl/klienci-indywidualni/wsparcie/cenniki-i-regulaminy</t>
+  </si>
+  <si>
+    <t>https://www.pekao.com.pl/o-banku/stopka/cennik-i-regulamin.html#</t>
+  </si>
+  <si>
+    <t>https://www.bosbank.pl/wazne-informacje/tabele-oplaty</t>
+  </si>
+  <si>
+    <t>https://plusbank.pl/oferta-dla-ciebie/konto-osobiste/konto-plus</t>
+  </si>
+  <si>
+    <t>https://www.bnpparibas.pl/repozytorium/oplaty-i-oprocentowanie/produkty-banku-bnp-paribas-sa</t>
+  </si>
+  <si>
+    <t>https://www.velobank.pl/klienci-indywidualni/centrum-dokumentow</t>
+  </si>
+  <si>
+    <t>https://plusbank.pl/oferta-dla-firmy/rachunki/rachunek-biznes</t>
+  </si>
+  <si>
+    <t>https://nestbank.pl/centrum-informacji/regulaminy-i-cenniki-oszczednosci-osobiste/#id1</t>
+  </si>
+  <si>
+    <t>https://nestbank.pl/centrum-informacji/regulaminy-i-cenniki-oszczednosci-firmowe/#id1</t>
+  </si>
+  <si>
+    <t>https://www.toyotabank.pl/lokata-standard</t>
   </si>
 </sst>
 </file>
@@ -714,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="61" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -727,13 +718,13 @@
     <row r="1" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -757,8 +748,8 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -770,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -784,10 +775,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -795,13 +786,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -811,11 +802,11 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -825,8 +816,8 @@
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -838,10 +829,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -851,8 +842,8 @@
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -863,11 +854,11 @@
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -877,11 +868,11 @@
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -893,7 +884,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -904,10 +895,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -917,8 +908,8 @@
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -929,8 +920,8 @@
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>46</v>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -941,8 +932,8 @@
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -951,13 +942,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -967,8 +958,8 @@
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>38</v>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -979,11 +970,11 @@
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>39</v>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -991,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1002,19 +993,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1022,18 +1013,18 @@
         <v>10</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>47</v>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -1043,7 +1034,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1058,8 +1049,21 @@
     <hyperlink ref="D9" r:id="rId7" xr:uid="{BC696EA0-3766-3747-A697-5AF1350B2506}"/>
     <hyperlink ref="D6" r:id="rId8" xr:uid="{0B9E6068-520B-9744-A4F0-47F0F3A41634}"/>
     <hyperlink ref="D4" r:id="rId9" location="oprocentowanie=2_x000a_" xr:uid="{3ED2893E-8B61-0D4F-926D-AD9FB8258C05}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{B395AD97-A015-6E40-AAAD-AC1DD39F28A8}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{A3C8348F-EA0F-F04F-8A58-1B14E4263F23}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{A69EF17C-A6CB-774C-87DD-B771C3E67819}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{E2175A1E-B0CF-5942-9A81-A2F871593BD6}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{51234331-6A0C-484A-B8FE-150FF88C13DA}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{0A87B76F-80E6-5D4D-9CFA-AB1A2D506B2D}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{B7B5655C-7D03-CA46-ACDB-281593E20CD3}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{0A927995-B7EE-8543-9710-E140A57CCF39}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{37B3F646-A576-724A-960C-70FBCD5791F9}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{84614982-4E9C-EA46-8C95-DC8BB887C920}"/>
+    <hyperlink ref="C12" r:id="rId20" location="id1" xr:uid="{7149C1CE-EED8-6149-8F55-C15E582B09DC}"/>
+    <hyperlink ref="D12" r:id="rId21" location="id1" xr:uid="{B6E01B1D-DB42-DE4B-84ED-F94E61E36111}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{04E53ACB-AD67-3E49-9C6F-B2F4A6C97966}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>